--- a/Assistants/Schedule_Duties_Info.xlsx
+++ b/Assistants/Schedule_Duties_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hosseinfani/Google_Drive/Academic/UWindsor/Course/COMP2650/Semester/W2021_Hossein Fani/Assistants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfani\Google_Drive\Academic\UWindsor\Course\COMP2650_Digital_Design\W2021_Hossein_Fani\Assistants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A4BC04-866F-354E-A32C-055920593BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F5D968-AFFF-4CDA-9239-009D97189D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15540" activeTab="2" xr2:uid="{2C32AA88-CB60-44B0-A959-D17D6FFE0192}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C32AA88-CB60-44B0-A959-D17D6FFE0192}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>Marking
 - 7:00</t>
@@ -55,20 +55,10 @@
 7:00 - </t>
   </si>
   <si>
-    <t>Lab Sections 51 &amp; 55
-19:00-22:00</t>
-  </si>
-  <si>
-    <t>GA2</t>
-  </si>
-  <si>
     <t>Lab Sections 53 &amp; 52
 16:00-19:00</t>
   </si>
   <si>
-    <t>GA1</t>
-  </si>
-  <si>
     <t>Moderate Lecture &amp; Office B
 10:00-12:30</t>
   </si>
@@ -158,9 +148,6 @@
     <t>Khalid</t>
   </si>
   <si>
-    <t>Muhammad</t>
-  </si>
-  <si>
     <t>Hours Allocated </t>
   </si>
   <si>
@@ -182,9 +169,6 @@
     <t>Marker</t>
   </si>
   <si>
-    <t>GA1-2</t>
-  </si>
-  <si>
     <t>Lab Instructor</t>
   </si>
   <si>
@@ -210,9 +194,6 @@
   </si>
   <si>
     <t>patel891</t>
-  </si>
-  <si>
-    <t>TA2</t>
   </si>
   <si>
     <t>Monitor Discussion Board</t>
@@ -626,19 +607,10 @@
     </r>
   </si>
   <si>
-    <t>TA3: Faraz
-TA4: Misha
-TA5: Dhwani</t>
-  </si>
-  <si>
     <t xml:space="preserve">    TA1: Ariya</t>
   </si>
   <si>
     <t>TA1: Ariya</t>
-  </si>
-  <si>
-    <t>TA3: Faraz
-TA4: Misha  TA5: Dhwani</t>
   </si>
   <si>
     <t>Hi, Im Moeed. Currently doing my MSc Computer Science with my research being in cancer detection using Siamese neural networks. I have worked before as a data analyst, a software engineer, a full stack web developer as well as an associate AI engineer. This is my second term at uWindsor and my second term as a GA. Looking forward to working as  a GA in this course.</t>
@@ -658,6 +630,34 @@
   </si>
   <si>
     <t>Hello, I am Misha, currently in my third year of Computer Science. I have been TA for a year now and I am very much glad to a be TA in this course</t>
+  </si>
+  <si>
+    <t>Lab Sections 51 &amp; 54
+19:00-22:00</t>
+  </si>
+  <si>
+    <t>GA2: Manil</t>
+  </si>
+  <si>
+    <t>TA2: Misha</t>
+  </si>
+  <si>
+    <t>TA3: Faraz
+TA4: Ravi
+TA5: Dhwani</t>
+  </si>
+  <si>
+    <t>Muhammad Moeed</t>
+  </si>
+  <si>
+    <t>GA1: Moeed
+GA2: Manil</t>
+  </si>
+  <si>
+    <t>GA1: Moeed</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1076,9 +1076,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1129,6 +1126,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1411,7 +1414,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1100384</xdr:colOff>
+      <xdr:colOff>1014659</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1257300</xdr:rowOff>
     </xdr:to>
@@ -1776,71 +1779,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22DDC83-E6A0-4CCE-B325-D7BC8822C4D5}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="20.33203125" style="1"/>
+    <col min="1" max="1" width="19.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="20.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>13</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>10</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="F1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I1" s="16"/>
       <c r="J1" s="17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
-        <v>72</v>
+    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="18"/>
       <c r="D2" s="23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -1848,15 +1851,15 @@
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>5</v>
+    <row r="3" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -1865,15 +1868,15 @@
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>3</v>
+    <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="20" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -1882,35 +1885,35 @@
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
-        <v>53</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="B5" s="19"/>
-      <c r="C5" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="C5" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
       <c r="D6" s="22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
@@ -1918,26 +1921,26 @@
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>70</v>
+    <row r="7" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>75</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J8" s="2"/>
     </row>
   </sheetData>
@@ -1956,71 +1959,71 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="230.33203125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="20.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="230.28515625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="128" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="160" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>43</v>
+    <row r="5" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2032,236 +2035,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90F77D-24DA-4093-923B-91E32C079022}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="105.5" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="29"/>
+    <col min="1" max="1" width="15.28515625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="105.42578125" style="28" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="29">
+        <v>110036981</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="29">
+        <v>140</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="29">
+        <v>110023689</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="29">
+        <v>140</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="29">
+        <v>105127455</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="29">
+        <v>100</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="29">
+        <v>105140023</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="29">
+        <v>100</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="29">
+        <v>105175694</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="F6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="29">
+        <v>100</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="30">
-        <v>110036981</v>
-      </c>
-      <c r="E2" s="30" t="s">
+    <row r="7" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="29">
+        <v>110009274</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="30">
-        <v>140</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>74</v>
+      <c r="F7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="29">
+        <v>100</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="30">
-        <v>110023689</v>
-      </c>
-      <c r="E3" s="30" t="s">
+    <row r="8" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="29">
+        <v>110028937</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="30">
-        <v>140</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="30">
-        <v>105127455</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="30">
+      <c r="F8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="29">
         <v>100</v>
       </c>
-      <c r="I4" s="40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="30">
-        <v>105140023</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="30">
-        <v>100</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="104" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="30">
-        <v>105175694</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="30">
-        <v>100</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="30">
-        <v>110009274</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="30">
-        <v>100</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="30">
-        <v>110028937</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="30">
-        <v>100</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>77</v>
+      <c r="I8" s="40" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Assistants/Schedule_Duties_Info.xlsx
+++ b/Assistants/Schedule_Duties_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfani\Google_Drive\Academic\UWindsor\Course\COMP2650_Digital_Design\W2021_Hossein_Fani\Assistants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F5D968-AFFF-4CDA-9239-009D97189D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A001B9-7365-4796-A872-7B9685A2EFD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C32AA88-CB60-44B0-A959-D17D6FFE0192}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2C32AA88-CB60-44B0-A959-D17D6FFE0192}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>Marking
 - 7:00</t>
@@ -280,111 +280,6 @@
   </si>
   <si>
     <t>THU</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0. Find the students' Lec and Lab submissions after the submission deadline on Wednesdays 7:00 AM Eastern time
-1. Mark (#submission/3) submissions
-1.1. In case of Lec submission and exams, for each question that lose a mark, write a detailed explanation why the deduction happens. Simply put the deduction is NOT enough. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">This is mandatory for each question.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">1.2. In case of Lab submission, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">the program MUST be checked for running without error. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">For each part of the submission, write a detailed explanation why the deduction happens. Simply put the deduction is NOT enough. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">This is mandatory.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">1.3. For late submission, put a comment "Late Submission" with no mark! </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">Just leave it blank. Do NOT put 0! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-2. The marks MUST be ready by Monday 7:00 AM Eastern time next week. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>This is a HARD deadline.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -642,22 +537,143 @@
     <t>TA2: Misha</t>
   </si>
   <si>
+    <t>Muhammad Moeed</t>
+  </si>
+  <si>
+    <t>GA1: Moeed
+GA2: Manil</t>
+  </si>
+  <si>
+    <t>GA1: Moeed</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Manush</t>
+  </si>
+  <si>
+    <t>Thaker</t>
+  </si>
+  <si>
+    <t>thaker3@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>thaker3</t>
+  </si>
+  <si>
+    <t>hello, my name is Manush Thaker. i am pursuing a Bachelor of computer science (Honours and co-op) degree with specialization in software engineering. in the last semester I worked as a TA in C programming language and in the current semester I have appointed as a TA in Digital Design course.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0. Find the students' Lec and Lab submissions after the submission deadline on Wednesdays 7:00 AM Eastern time
+1. Mark (#submission/4) submissions
+1.1. In case of Lec submission and exams, for each question that lose a mark, write a detailed explanation why the deduction happens. Simply put the deduction is NOT enough. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">This is mandatory for each question.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">1.2. In case of Lab submission, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">the program MUST be checked for running without error. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">For each part of the submission, write a detailed explanation why the deduction happens. Simply put the deduction is NOT enough. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">This is mandatory.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">1.3. For late submission, put a comment "Late Submission" with no mark! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">Just leave it blank. Do NOT put 0! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+2. The marks MUST be ready by Monday 7:00 AM Eastern time next week. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>This is a HARD deadline.</t>
+    </r>
+  </si>
+  <si>
     <t>TA3: Faraz
 TA4: Ravi
-TA5: Dhwani</t>
-  </si>
-  <si>
-    <t>Muhammad Moeed</t>
-  </si>
-  <si>
-    <t>GA1: Moeed
-GA2: Manil</t>
-  </si>
-  <si>
-    <t>GA1: Moeed</t>
-  </si>
-  <si>
-    <t>?</t>
+TA5: Dhwani
+TA6: Manush</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1112,6 +1128,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1126,12 +1154,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1464,6 +1486,101 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1190840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D087EA40-0203-4E1F-A9FF-5EB84AC5E041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="6299"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="257175"/>
+          <a:ext cx="876300" cy="1133690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1352549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1218258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FCB942-6074-459D-8870-FF4780A42F8F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9FBE857B-7A31-43A1-87F9-F4497176C7B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect l="7080" r="8849"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="9210674"/>
+          <a:ext cx="904875" cy="1218259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1779,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22DDC83-E6A0-4CCE-B325-D7BC8822C4D5}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1834,7 +1951,7 @@
     </row>
     <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="18"/>
@@ -1853,7 +1970,7 @@
     </row>
     <row r="3" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1870,13 +1987,13 @@
     </row>
     <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -1886,24 +2003,24 @@
       <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>74</v>
+      <c r="A5" s="47" t="s">
+        <v>73</v>
       </c>
       <c r="B5" s="19"/>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="19"/>
       <c r="C6" s="18"/>
       <c r="D6" s="22" t="s">
@@ -1921,18 +2038,18 @@
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="18"/>
@@ -1959,7 +2076,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,7 +2100,7 @@
     </row>
     <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>37</v>
@@ -1994,36 +2111,36 @@
     </row>
     <row r="3" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>77</v>
+      <c r="A5" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2033,10 +2150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90F77D-24DA-4093-923B-91E32C079022}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2057,10 +2174,10 @@
       <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="45"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="32" t="s">
         <v>35</v>
       </c>
@@ -2082,12 +2199,10 @@
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
     </row>
-    <row r="2" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>79</v>
-      </c>
+    <row r="2" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
       <c r="B2" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>31</v>
@@ -2108,7 +2223,7 @@
         <v>140</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2134,7 +2249,7 @@
         <v>140</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2187,7 +2302,7 @@
         <v>100</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2214,7 +2329,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -2241,7 +2356,7 @@
         <v>100</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2267,7 +2382,36 @@
         <v>100</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="42">
+        <v>110034919</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="43">
+        <v>100</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2282,9 +2426,10 @@
     <hyperlink ref="F7" r:id="rId5" display="mailto:naseemf@uwindsor.ca" xr:uid="{49B0D230-DDC1-48DF-90F8-EB54D299B7C0}"/>
     <hyperlink ref="F8" r:id="rId6" display="mailto:patel891@uwindsor.ca" xr:uid="{A804B07D-0ECE-4F05-8953-575B1E30113F}"/>
     <hyperlink ref="F6" r:id="rId7" display="mailto:patel27r@uwindsor.ca" xr:uid="{125BF556-8063-4184-9EB0-B2610C7BAEE6}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{1C498479-E06B-4633-9B19-45BA4C5020AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>